--- a/Jogos_do_Dia/2023-03-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.74</v>
       </c>
       <c r="M2" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="N2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>3.78</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,7 +763,7 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>1.7</v>
@@ -861,10 +861,10 @@
         <v>5.25</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.5</v>
@@ -891,13 +891,13 @@
         <v>1.62</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
         <v>1.5</v>
@@ -915,28 +915,28 @@
         <v>2.68</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>5.26</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>2.71</v>
       </c>
       <c r="M6" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="N9" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.89</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2172,52 +2172,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V16" t="n">
         <v>1.91</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2392,52 +2392,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V18" t="n">
         <v>1.82</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>5.15</v>
+        <v>5.25</v>
       </c>
       <c r="I19" t="n">
         <v>1.08</v>
@@ -2523,10 +2523,10 @@
         <v>2.75</v>
       </c>
       <c r="M19" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="N19" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="O19" t="n">
         <v>1.52</v>
@@ -2565,28 +2565,28 @@
         <v>2.96</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="20">
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2633,10 +2633,10 @@
         <v>3.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="N20" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O20" t="n">
         <v>1.37</v>
@@ -2722,25 +2722,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.08</v>
+        <v>2.74</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="M21" t="n">
         <v>1.93</v>
@@ -2749,10 +2749,10 @@
         <v>1.66</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="Q21" t="n">
         <v>1.83</v>
@@ -2761,13 +2761,13 @@
         <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V21" t="n">
         <v>2</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="N22" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
@@ -2945,10 +2945,10 @@
         <v>2.05</v>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>1.1</v>
@@ -3058,7 +3058,7 @@
         <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I24" t="n">
         <v>1.08</v>
@@ -3070,10 +3070,10 @@
         <v>1.49</v>
       </c>
       <c r="L24" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N24" t="n">
         <v>1.53</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
         <v>1.08</v>
@@ -3180,13 +3180,13 @@
         <v>1.5</v>
       </c>
       <c r="L25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="M25" t="n">
         <v>2.45</v>
       </c>
       <c r="N25" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="O25" t="n">
         <v>1.47</v>
@@ -3272,52 +3272,52 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V26" t="n">
         <v>1.4</v>
@@ -3382,52 +3382,52 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V27" t="n">
         <v>1.71</v>
@@ -3492,52 +3492,52 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3623,10 +3623,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I30" t="n">
         <v>1.1</v>
@@ -3822,52 +3822,52 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M31" t="n">
         <v>2.15</v>
       </c>
-      <c r="G31" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2.1</v>
-      </c>
       <c r="N31" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="R31" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V31" t="n">
         <v>1.92</v>
@@ -3903,7 +3903,7 @@
         <v>2.52</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>4.32</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE32" t="n">
         <v>1.23</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="G33" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -4063,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="N33" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="I34" t="n">
         <v>1.07</v>
@@ -4173,10 +4173,10 @@
         <v>2.87</v>
       </c>
       <c r="M34" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="O34" t="n">
         <v>1.48</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="I35" t="n">
         <v>1.04</v>
@@ -4283,10 +4283,10 @@
         <v>3.2</v>
       </c>
       <c r="M35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O35" t="n">
         <v>1.45</v>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G36" t="n">
         <v>3.2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3.1</v>
       </c>
       <c r="H36" t="n">
         <v>2.1</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="G37" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I37" t="n">
         <v>1.06</v>
@@ -4503,10 +4503,10 @@
         <v>2.64</v>
       </c>
       <c r="M37" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="N37" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O37" t="n">
         <v>1.54</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
         <v>1.07</v>
@@ -4836,7 +4836,7 @@
         <v>2.1</v>
       </c>
       <c r="N40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O40" t="n">
         <v>1.43</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H42" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I42" t="n">
         <v>1.08</v>
@@ -5053,10 +5053,10 @@
         <v>2.8</v>
       </c>
       <c r="M42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N42" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O42" t="n">
         <v>1.49</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="N43" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G44" t="n">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="H44" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="I44" t="n">
         <v>1.06</v>
@@ -5273,7 +5273,7 @@
         <v>3.05</v>
       </c>
       <c r="M44" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
         <v>1.7</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H45" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
         <v>1.08</v>
@@ -5377,16 +5377,16 @@
         <v>7.8</v>
       </c>
       <c r="K45" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="L45" t="n">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="M45" t="n">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="N45" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O45" t="n">
         <v>1.52</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G48" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
         <v>1.05</v>
@@ -5713,10 +5713,10 @@
         <v>2.67</v>
       </c>
       <c r="M48" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="N48" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O48" t="n">
         <v>1.44</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.06</v>
+        <v>3.9</v>
       </c>
       <c r="G49" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I49" t="n">
         <v>1.07</v>
@@ -5823,10 +5823,10 @@
         <v>2.95</v>
       </c>
       <c r="M49" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="N49" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
